--- a/ttt.xlsx
+++ b/ttt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="6270" windowWidth="27645" windowHeight="5325" tabRatio="528"/>
+    <workbookView xWindow="-6105" yWindow="3495" windowWidth="29040" windowHeight="3150" tabRatio="447"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>int1</t>
   </si>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward_multi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_gold|金币|show_1234+icon_weapon_456|圣剑|show_456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,11 +309,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strstrstrarr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strstrstr数组</t>
+    <t>reward_sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_mt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_mt_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str3arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str3数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -721,28 +725,28 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -765,25 +769,25 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
       <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
         <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -809,25 +813,25 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
-      </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -838,40 +842,40 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -882,40 +886,40 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -923,40 +927,40 @@
         <v>10000103</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
